--- a/TestData/Iwebshop/用户中心接口用例.xlsx
+++ b/TestData/Iwebshop/用户中心接口用例.xlsx
@@ -4,25 +4,26 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9924"/>
+    <workbookView windowWidth="20385" windowHeight="8370" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
-    <sheet name="登录" sheetId="1" r:id="rId1"/>
-    <sheet name="退出" sheetId="2" r:id="rId2"/>
-    <sheet name="选择商品" sheetId="4" r:id="rId3"/>
-    <sheet name="直接购买" sheetId="5" r:id="rId4"/>
-    <sheet name="加入购物车" sheetId="6" r:id="rId5"/>
-    <sheet name="结算" sheetId="7" r:id="rId6"/>
+    <sheet name="打开首页" sheetId="12" r:id="rId1"/>
+    <sheet name="登录" sheetId="1" r:id="rId2"/>
+    <sheet name="退出" sheetId="2" r:id="rId3"/>
+    <sheet name="选择商品" sheetId="4" r:id="rId4"/>
+    <sheet name="直接购买" sheetId="5" r:id="rId5"/>
+    <sheet name="加入购物车" sheetId="6" r:id="rId6"/>
     <sheet name="收货地址" sheetId="8" r:id="rId7"/>
     <sheet name="提交订单" sheetId="9" r:id="rId8"/>
     <sheet name="支付" sheetId="10" r:id="rId9"/>
+    <sheet name="商品搜索" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
   <si>
     <t>接口名称</t>
   </si>
@@ -33,12 +34,6 @@
     <t>接口地址</t>
   </si>
   <si>
-    <t>参数：login_info</t>
-  </si>
-  <si>
-    <t>参数：password</t>
-  </si>
-  <si>
     <t>断言</t>
   </si>
   <si>
@@ -54,16 +49,25 @@
     <t>post</t>
   </si>
   <si>
+    <t>http://localhost/iwebshop</t>
+  </si>
+  <si>
+    <t>iWebShop开源电子商务平台</t>
+  </si>
+  <si>
+    <t>参数:login_info</t>
+  </si>
+  <si>
+    <t>参数:password</t>
+  </si>
+  <si>
     <t>http://localhost/iwebshop/index.php?controller=simple&amp;action=login_act</t>
   </si>
   <si>
     <t>的士速递</t>
   </si>
   <si>
-    <t>domresult.title()</t>
-  </si>
-  <si>
-    <t>商城首页</t>
+    <t>121212</t>
   </si>
   <si>
     <t>退出</t>
@@ -75,40 +79,31 @@
     <t>http://localhost/iwebshop/index.php?controller=simple&amp;action=logout</t>
   </si>
   <si>
-    <t>网站首页</t>
-  </si>
-  <si>
     <t>选择商品</t>
   </si>
   <si>
     <t>http://localhost/iwebshop/index.php?controller=site&amp;action=products&amp;id=87</t>
   </si>
   <si>
-    <t>商品页</t>
-  </si>
-  <si>
     <t>直接购买</t>
   </si>
   <si>
     <t>http://localhost/iwebshop/index.php?controller=simple&amp;action=cart2&amp;id=87&amp;num=1&amp;type=goods</t>
   </si>
   <si>
-    <t>订单页</t>
-  </si>
-  <si>
     <t>加入购物车</t>
   </si>
   <si>
     <t>http://localhost/iwebshop/index.php?controller=simple&amp;action=joinCart&amp;_paramKey_=_paramVal_&amp;goods_id=87&amp;type=goods&amp;goods_num=1&amp;random=0.947724801066516</t>
   </si>
   <si>
-    <t>系统提示</t>
-  </si>
-  <si>
-    <t>结算</t>
-  </si>
-  <si>
-    <t>http://localhost/iwebshop/index.php?controller=simple&amp;action=cart2</t>
+    <t>message</t>
+  </si>
+  <si>
+    <t>添加成功</t>
+  </si>
+  <si>
+    <t>$.message</t>
   </si>
   <si>
     <t>收货地址</t>
@@ -117,40 +112,40 @@
     <t>http://localhost/iwebshop/index.php?controller=block&amp;action=address&amp;_paramKey_=_paramVal_</t>
   </si>
   <si>
-    <t>显示</t>
-  </si>
-  <si>
-    <t>参数accept_time</t>
-  </si>
-  <si>
-    <t>参数delivery_id</t>
-  </si>
-  <si>
-    <t>参数direct_active_id</t>
-  </si>
-  <si>
-    <t>参数direct_gid</t>
-  </si>
-  <si>
-    <t>参数direct_num</t>
-  </si>
-  <si>
-    <t>参数direct_promo</t>
-  </si>
-  <si>
-    <t>参数direct_type</t>
-  </si>
-  <si>
-    <t>参数message</t>
-  </si>
-  <si>
-    <t>参数payment</t>
-  </si>
-  <si>
-    <t>参数radio_address</t>
-  </si>
-  <si>
-    <t>参数tax_title</t>
+    <t>修改收货地址</t>
+  </si>
+  <si>
+    <t>参数:accept_time</t>
+  </si>
+  <si>
+    <t>参数:delivery_id</t>
+  </si>
+  <si>
+    <t>参数:direct_active_id</t>
+  </si>
+  <si>
+    <t>参数:direct_gid</t>
+  </si>
+  <si>
+    <t>参数:direct_num</t>
+  </si>
+  <si>
+    <t>参数:direct_promo</t>
+  </si>
+  <si>
+    <t>参数:direct_type</t>
+  </si>
+  <si>
+    <t>参数:message</t>
+  </si>
+  <si>
+    <t>参数:payment</t>
+  </si>
+  <si>
+    <t>参数:radio_address</t>
+  </si>
+  <si>
+    <t>参数:tax_title</t>
   </si>
   <si>
     <t>提交订单</t>
@@ -162,16 +157,55 @@
     <t>任意</t>
   </si>
   <si>
-    <t>支付页</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>goods</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>参数:attach</t>
+  </si>
+  <si>
+    <t>参数:order_no</t>
+  </si>
+  <si>
+    <t>参数:sign</t>
+  </si>
+  <si>
+    <t>参数:total_fee</t>
   </si>
   <si>
     <t>支付</t>
   </si>
   <si>
-    <t>http://localhost/iwebshop/index.php?controller=block&amp;action=doPay&amp;order_id=6</t>
-  </si>
-  <si>
-    <t>支付成功</t>
+    <t>http://localhost/iwebshop/index.php?controller=ucenter&amp;action=payment_balance</t>
+  </si>
+  <si>
+    <t>20170424144338700000</t>
+  </si>
+  <si>
+    <t>93bef9b21185fa78b1f366f0a5caa920</t>
+  </si>
+  <si>
+    <t>372</t>
+  </si>
+  <si>
+    <t>商品搜索</t>
+  </si>
+  <si>
+    <t>http://localhost/iwebshop/index.php?controller=site&amp;action=search_list&amp;word=</t>
   </si>
 </sst>
 </file>
@@ -180,9 +214,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -209,10 +243,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -225,14 +275,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,45 +328,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,7 +343,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,6 +357,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -323,21 +372,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -360,49 +394,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,13 +550,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,115 +568,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,22 +607,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,30 +638,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -649,6 +659,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -661,8 +695,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -674,10 +708,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -686,16 +720,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -704,119 +738,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -829,7 +863,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -896,7 +939,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1147,25 +1190,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="2" width="11.1111111111111" style="1" customWidth="1"/>
-    <col min="3" max="3" width="78.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.2222222222222" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.6666666666667" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.7777777777778" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6666666666667" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.7777777777778" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="78.25" customWidth="1"/>
+    <col min="4" max="6" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:8">
+    <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1184,42 +1221,95 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" ht="22" customHeight="1" spans="1:6">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="22" customHeight="1" spans="1:8">
-      <c r="A2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1">
-        <v>121212</v>
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="http://localhost/iwebshop/index.php?controller=simple&amp;action=login_act" tooltip="http://localhost/iwebshop/index.php?controller=simple&amp;action=login_act"/>
+    <hyperlink ref="C2" r:id="rId1" display="http://localhost/iwebshop" tooltip="http://localhost/iwebshop"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
+  <cols>
+    <col min="2" max="2" width="9.875" customWidth="1"/>
+    <col min="3" max="3" width="84.875" customWidth="1"/>
+    <col min="4" max="6" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="22" customHeight="1" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="http://localhost/iwebshop/index.php?controller=site&amp;action=search_list&amp;word=" tooltip="http://localhost/iwebshop/index.php?controller=site&amp;action=search_list&amp;word="/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -1229,21 +1319,23 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
-    <col min="3" max="3" width="78.25" customWidth="1"/>
-    <col min="4" max="4" width="19.3796296296296" customWidth="1"/>
-    <col min="5" max="5" width="9.87962962962963" customWidth="1"/>
-    <col min="6" max="6" width="19.3796296296296" customWidth="1"/>
+    <col min="1" max="2" width="11.1083333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="78.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.6666666666667" style="1" customWidth="1"/>
+    <col min="6" max="8" width="26" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:6">
+    <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1254,38 +1346,50 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" ht="22" customHeight="1" spans="1:8">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="22" customHeight="1" spans="1:6">
-      <c r="A2" s="1" t="s">
+      <c r="C2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="http://localhost/iwebshop/index.php?controller=simple&amp;action=logout" tooltip="http://localhost/iwebshop/index.php?controller=simple&amp;action=logout"/>
+    <hyperlink ref="C2" r:id="rId1" display="http://localhost/iwebshop/index.php?controller=simple&amp;action=login_act" tooltip="http://localhost/iwebshop/index.php?controller=simple&amp;action=login_act"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -1298,15 +1402,13 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
     <col min="3" max="3" width="78.25" customWidth="1"/>
-    <col min="4" max="4" width="19.3796296296296" customWidth="1"/>
-    <col min="5" max="5" width="9.87962962962963" customWidth="1"/>
-    <col min="6" max="6" width="19.3796296296296" customWidth="1"/>
+    <col min="4" max="6" width="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:6">
@@ -1320,38 +1422,38 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="22" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="http://localhost/iwebshop/index.php?controller=site&amp;action=products&amp;id=87" tooltip="http://localhost/iwebshop/index.php?controller=site&amp;action=products&amp;id=87"/>
+    <hyperlink ref="C2" r:id="rId1" display="http://localhost/iwebshop/index.php?controller=simple&amp;action=logout" tooltip="http://localhost/iwebshop/index.php?controller=simple&amp;action=logout"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -1364,15 +1466,13 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
-    <col min="3" max="3" width="99.3796296296296" customWidth="1"/>
-    <col min="4" max="4" width="19.3796296296296" customWidth="1"/>
-    <col min="5" max="5" width="9.87962962962963" customWidth="1"/>
-    <col min="6" max="6" width="19.3796296296296" customWidth="1"/>
+    <col min="3" max="3" width="78.25" customWidth="1"/>
+    <col min="4" max="6" width="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:6">
@@ -1386,38 +1486,38 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="22" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="http://localhost/iwebshop/index.php?controller=simple&amp;action=cart2&amp;id=87&amp;num=1&amp;type=goods" tooltip="http://localhost/iwebshop/index.php?controller=simple&amp;action=cart2&amp;id=87&amp;num=1&amp;type=goods"/>
+    <hyperlink ref="C2" r:id="rId1" display="http://localhost/iwebshop/index.php?controller=site&amp;action=products&amp;id=87" tooltip="http://localhost/iwebshop/index.php?controller=site&amp;action=products&amp;id=87"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -1430,15 +1530,13 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="10.8796296296296" customWidth="1"/>
-    <col min="3" max="3" width="78.25" customWidth="1"/>
-    <col min="4" max="4" width="19.3796296296296" customWidth="1"/>
-    <col min="6" max="6" width="19.3796296296296" customWidth="1"/>
+    <col min="3" max="3" width="99.375" customWidth="1"/>
+    <col min="4" max="6" width="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:6">
@@ -1452,38 +1550,38 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="28.8" spans="1:6">
+    <row r="2" s="1" customFormat="1" ht="22" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>25</v>
+        <v>16</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="http://localhost/iwebshop/index.php?controller=simple&amp;action=joinCart&amp;_paramKey_=_paramVal_&amp;goods_id=87&amp;type=goods&amp;goods_num=1&amp;random=0.947724801066516" tooltip="http://localhost/iwebshop/index.php?controller=simple&amp;action=joinCart&amp;_paramKey_=_paramVal_&amp;goods_id=87&amp;type=goods&amp;goods_num=1&amp;random=0.947724801066516"/>
+    <hyperlink ref="C2" r:id="rId1" display="http://localhost/iwebshop/index.php?controller=simple&amp;action=cart2&amp;id=87&amp;num=1&amp;type=goods" tooltip="http://localhost/iwebshop/index.php?controller=simple&amp;action=cart2&amp;id=87&amp;num=1&amp;type=goods"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -1496,15 +1594,14 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
+    <col min="1" max="1" width="10.875" customWidth="1"/>
     <col min="3" max="3" width="78.25" customWidth="1"/>
-    <col min="4" max="4" width="19.3796296296296" customWidth="1"/>
-    <col min="5" max="5" width="9.87962962962963" customWidth="1"/>
-    <col min="6" max="6" width="19.3796296296296" customWidth="1"/>
+    <col min="4" max="6" width="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:6">
@@ -1518,38 +1615,38 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="22" customHeight="1" spans="1:6">
+    <row r="2" s="1" customFormat="1" ht="27" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>28</v>
+        <v>16</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="http://localhost/iwebshop/index.php?controller=simple&amp;action=cart2" tooltip="http://localhost/iwebshop/index.php?controller=simple&amp;action=cart2"/>
+    <hyperlink ref="C2" r:id="rId1" display="http://localhost/iwebshop/index.php?controller=simple&amp;action=joinCart&amp;_paramKey_=_paramVal_&amp;goods_id=87&amp;type=goods&amp;goods_num=1&amp;random=0.947724801066516" tooltip="http://localhost/iwebshop/index.php?controller=simple&amp;action=joinCart&amp;_paramKey_=_paramVal_&amp;goods_id=87&amp;type=goods&amp;goods_num=1&amp;random=0.947724801066516"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -1562,15 +1659,13 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
     <col min="3" max="3" width="78.25" customWidth="1"/>
-    <col min="4" max="4" width="19.3796296296296" customWidth="1"/>
-    <col min="5" max="5" width="9.87962962962963" customWidth="1"/>
-    <col min="6" max="6" width="19.3796296296296" customWidth="1"/>
+    <col min="4" max="6" width="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:6">
@@ -1584,33 +1679,33 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="28.8" spans="1:6">
+    <row r="2" s="1" customFormat="1" ht="27" spans="1:6">
       <c r="A2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1627,20 +1722,22 @@
   <sheetPr/>
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="3" max="3" width="78.25" customWidth="1"/>
-    <col min="4" max="5" width="18.8796296296296" customWidth="1"/>
-    <col min="6" max="6" width="25.1296296296296" customWidth="1"/>
-    <col min="7" max="13" width="18.8796296296296" customWidth="1"/>
-    <col min="14" max="14" width="15.1296296296296" customWidth="1"/>
-    <col min="15" max="15" width="19.3796296296296" customWidth="1"/>
-    <col min="16" max="16" width="9.87962962962963" customWidth="1"/>
-    <col min="17" max="17" width="19.3796296296296" customWidth="1"/>
+    <col min="4" max="5" width="21.25" customWidth="1"/>
+    <col min="6" max="6" width="27.5" customWidth="1"/>
+    <col min="7" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="22.5" customWidth="1"/>
+    <col min="10" max="10" width="21.25" customWidth="1"/>
+    <col min="11" max="12" width="18.875" customWidth="1"/>
+    <col min="13" max="13" width="23.75" customWidth="1"/>
+    <col min="14" max="14" width="18.75" customWidth="1"/>
+    <col min="15" max="17" width="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:17">
@@ -1654,87 +1751,99 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="O1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="22" customHeight="1" spans="1:17">
       <c r="A2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1</v>
-      </c>
-      <c r="L2" s="1">
-        <v>1</v>
-      </c>
-      <c r="M2" s="1">
-        <v>1</v>
+      <c r="G2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1749,22 +1858,23 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
-    <col min="2" max="2" width="9.87962962962963" customWidth="1"/>
-    <col min="3" max="3" width="78.25" customWidth="1"/>
-    <col min="4" max="4" width="19.3796296296296" customWidth="1"/>
-    <col min="5" max="5" width="9.87962962962963" customWidth="1"/>
-    <col min="6" max="6" width="19.3796296296296" customWidth="1"/>
+    <col min="2" max="2" width="9.875" customWidth="1"/>
+    <col min="3" max="3" width="84.875" customWidth="1"/>
+    <col min="4" max="5" width="22.625" customWidth="1"/>
+    <col min="6" max="6" width="36" customWidth="1"/>
+    <col min="7" max="7" width="17.625" customWidth="1"/>
+    <col min="8" max="10" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:6">
+    <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1775,38 +1885,62 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="2" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
+      <c r="A2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="22" customHeight="1" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>55</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="http://localhost/iwebshop/index.php?controller=block&amp;action=doPay&amp;order_id=6" tooltip="http://localhost/iwebshop/index.php?controller=block&amp;action=doPay&amp;order_id=6"/>
+    <hyperlink ref="C2" r:id="rId1" display="http://localhost/iwebshop/index.php?controller=ucenter&amp;action=payment_balance" tooltip="http://localhost/iwebshop/index.php?controller=ucenter&amp;action=payment_balance"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
